--- a/biology/Médecine/1751_en_santé_et_médecine/1751_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1751_en_santé_et_médecine/1751_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1751_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1751_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1751 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1751_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1751_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 mai : le premier hôpital des futurs États-Unis, le Pennsylvania Hospital, est fondé à Philadelphie par Benjamin Franklin et Thomas Bond[1].
-11 juin : un arrêt du Conseil d’État de Lorraine « fait itérative défense à tous Religieux et sœurs de Charité [...] d’exercer la pharmacie dans la Ville de Nancy[2]. »
-Valenciennes reçoit ses lettres patentes pour l'ouverture d'un hôpital général[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11 mai : le premier hôpital des futurs États-Unis, le Pennsylvania Hospital, est fondé à Philadelphie par Benjamin Franklin et Thomas Bond.
+11 juin : un arrêt du Conseil d’État de Lorraine « fait itérative défense à tous Religieux et sœurs de Charité [...] d’exercer la pharmacie dans la Ville de Nancy. »
+Valenciennes reçoit ses lettres patentes pour l'ouverture d'un hôpital général.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1751_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1751_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>30 juillet : François Doublet (mort en 1795), médecin français[4].
-25 novembre : Jean-Pierre Bergeret (mort en 1813), médecin et botaniste français[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30 juillet : François Doublet (mort en 1795), médecin français.
+25 novembre : Jean-Pierre Bergeret (mort en 1813), médecin et botaniste français.
 10 décembre : George Kearsley Shaw (mort en 1813), médecin, botaniste et zoologiste britannique.
-19 décembre : Nicolas-Pierre Gilbert (mort en 1814), médecin militaire français[6],[7].</t>
+19 décembre : Nicolas-Pierre Gilbert (mort en 1814), médecin militaire français,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1751_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1751_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11 novembre : Julien Offray de La Mettrie (né en 1709), médecin et philosophe matérialiste français[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11 novembre : Julien Offray de La Mettrie (né en 1709), médecin et philosophe matérialiste français.</t>
         </is>
       </c>
     </row>
